--- a/auxillary/SraRunTable_UGA.xlsx
+++ b/auxillary/SraRunTable_UGA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="6320" yWindow="2440" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="147">
   <si>
     <t>SRR5609072</t>
   </si>
@@ -450,6 +450,24 @@
   </si>
   <si>
     <t>SRX2860012</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -782,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="M1" sqref="M1:Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,7 +814,7 @@
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -827,8 +845,23 @@
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -859,8 +892,23 @@
       <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -891,8 +939,23 @@
       <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -923,8 +986,23 @@
       <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O4" t="s">
+        <v>146</v>
+      </c>
+      <c r="P4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -955,8 +1033,23 @@
       <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O5" t="s">
+        <v>146</v>
+      </c>
+      <c r="P5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -987,8 +1080,23 @@
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O6" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1019,8 +1127,23 @@
       <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1051,8 +1174,23 @@
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" t="s">
+        <v>146</v>
+      </c>
+      <c r="P8" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -1083,8 +1221,23 @@
       <c r="J9" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O9" t="s">
+        <v>146</v>
+      </c>
+      <c r="P9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1115,8 +1268,23 @@
       <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O10" t="s">
+        <v>146</v>
+      </c>
+      <c r="P10" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -1147,8 +1315,23 @@
       <c r="J11" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O11" t="s">
+        <v>146</v>
+      </c>
+      <c r="P11" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1179,8 +1362,23 @@
       <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" t="s">
+        <v>146</v>
+      </c>
+      <c r="P12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
@@ -1211,8 +1409,23 @@
       <c r="J13" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -1243,8 +1456,23 @@
       <c r="J14" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>146</v>
+      </c>
+      <c r="P14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
@@ -1275,8 +1503,23 @@
       <c r="J15" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>146</v>
+      </c>
+      <c r="P15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>64</v>
       </c>
@@ -1307,8 +1550,23 @@
       <c r="J16" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>146</v>
+      </c>
+      <c r="P16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
@@ -1339,8 +1597,23 @@
       <c r="J17" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" t="s">
+        <v>146</v>
+      </c>
+      <c r="P17" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
@@ -1371,8 +1644,23 @@
       <c r="J18" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O18" t="s">
+        <v>146</v>
+      </c>
+      <c r="P18" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>77</v>
       </c>
@@ -1403,8 +1691,23 @@
       <c r="J19" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" t="s">
+        <v>146</v>
+      </c>
+      <c r="P19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
@@ -1435,8 +1738,23 @@
       <c r="J20" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O20" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>85</v>
       </c>
@@ -1467,8 +1785,23 @@
       <c r="J21" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O21" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>89</v>
       </c>
@@ -1499,8 +1832,23 @@
       <c r="J22" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O22" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>93</v>
       </c>
@@ -1531,8 +1879,23 @@
       <c r="J23" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>93</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O23" t="s">
+        <v>146</v>
+      </c>
+      <c r="P23" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>97</v>
       </c>
@@ -1563,8 +1926,23 @@
       <c r="J24" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O24" t="s">
+        <v>146</v>
+      </c>
+      <c r="P24" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>101</v>
       </c>
@@ -1595,8 +1973,23 @@
       <c r="J25" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O25" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>105</v>
       </c>
@@ -1627,8 +2020,23 @@
       <c r="J26" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>105</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O26" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>109</v>
       </c>
@@ -1659,8 +2067,23 @@
       <c r="J27" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>109</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O27" t="s">
+        <v>146</v>
+      </c>
+      <c r="P27" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>113</v>
       </c>
@@ -1691,8 +2114,23 @@
       <c r="J28" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>113</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O28" t="s">
+        <v>146</v>
+      </c>
+      <c r="P28" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>117</v>
       </c>
@@ -1723,8 +2161,23 @@
       <c r="J29" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O29" t="s">
+        <v>146</v>
+      </c>
+      <c r="P29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>121</v>
       </c>
@@ -1755,8 +2208,23 @@
       <c r="J30" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O30" t="s">
+        <v>146</v>
+      </c>
+      <c r="P30" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>125</v>
       </c>
@@ -1787,8 +2255,23 @@
       <c r="J31" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>125</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O31" t="s">
+        <v>146</v>
+      </c>
+      <c r="P31" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>129</v>
       </c>
@@ -1819,8 +2302,23 @@
       <c r="J32" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>129</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O32" t="s">
+        <v>146</v>
+      </c>
+      <c r="P32" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>133</v>
       </c>
@@ -1851,8 +2349,23 @@
       <c r="J33" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>133</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O33" t="s">
+        <v>146</v>
+      </c>
+      <c r="P33" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>137</v>
       </c>
@@ -1882,6 +2395,21 @@
       </c>
       <c r="J34" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="M34" t="s">
+        <v>137</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O34" t="s">
+        <v>146</v>
+      </c>
+      <c r="P34" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q34">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
